--- a/documents/03_外部設計書_E4チーム[村人]0604.xlsx
+++ b/documents/03_外部設計書_E4チーム[村人]0604.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-4\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9003C09-B869-4982-BA35-DE74370C7E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F7BF4E-40C2-4492-97E3-4F9950BD6995}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="739" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30600" yWindow="435" windowWidth="26220" windowHeight="14490" tabRatio="739" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書(全体構想仮)" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="331">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -3310,6 +3310,29 @@
     <t>input cheakbox</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>文字を３段階レベルで分ける。</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>見出し解説文でフォントサイズ、ボールド、ノーマル</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カイセツブン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -3319,7 +3342,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -3405,6 +3428,14 @@
     </font>
     <font>
       <sz val="7"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3920,7 +3951,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4085,13 +4116,112 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4153,105 +4283,6 @@
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4316,6 +4347,54 @@
     <xf numFmtId="177" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4324,72 +4403,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4454,53 +4467,71 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4531,6 +4562,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15981,146 +16018,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="107" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="66" t="s">
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="87" t="s">
+      <c r="X1" s="101"/>
+      <c r="Y1" s="99"/>
+      <c r="Z1" s="100"/>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="100"/>
+      <c r="AD1" s="100"/>
+      <c r="AE1" s="101"/>
+      <c r="AF1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="88"/>
-      <c r="AH1" s="75"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="76"/>
-      <c r="AK1" s="76"/>
-      <c r="AL1" s="76"/>
-      <c r="AM1" s="76"/>
-      <c r="AN1" s="77"/>
+      <c r="AG1" s="121"/>
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="109"/>
+      <c r="AJ1" s="109"/>
+      <c r="AK1" s="109"/>
+      <c r="AL1" s="109"/>
+      <c r="AM1" s="109"/>
+      <c r="AN1" s="110"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="78" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="79" t="s">
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="82" t="s">
+      <c r="X2" s="114"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="86"/>
+      <c r="AG2" s="116"/>
+      <c r="AH2" s="117"/>
+      <c r="AI2" s="118"/>
+      <c r="AJ2" s="118"/>
+      <c r="AK2" s="118"/>
+      <c r="AL2" s="118"/>
+      <c r="AM2" s="118"/>
+      <c r="AN2" s="119"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="104"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="69" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="70"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="73"/>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="73"/>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="74"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="106"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="106"/>
+      <c r="AE3" s="106"/>
+      <c r="AF3" s="106"/>
+      <c r="AG3" s="106"/>
+      <c r="AH3" s="106"/>
+      <c r="AI3" s="106"/>
+      <c r="AJ3" s="106"/>
+      <c r="AK3" s="106"/>
+      <c r="AL3" s="106"/>
+      <c r="AM3" s="106"/>
+      <c r="AN3" s="107"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="30"/>
@@ -16273,24 +16310,24 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="89" t="s">
+      <c r="S8" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="T8" s="90"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="91"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="75"/>
       <c r="Y8" s="4"/>
-      <c r="AB8" s="108" t="s">
+      <c r="AB8" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="AC8" s="109"/>
-      <c r="AD8" s="109"/>
-      <c r="AE8" s="109"/>
-      <c r="AF8" s="109"/>
-      <c r="AG8" s="109"/>
-      <c r="AH8" s="110"/>
+      <c r="AC8" s="83"/>
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="83"/>
+      <c r="AF8" s="83"/>
+      <c r="AG8" s="83"/>
+      <c r="AH8" s="84"/>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
@@ -16317,24 +16354,24 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="94"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="81"/>
       <c r="Y9" s="9"/>
-      <c r="AB9" s="108" t="s">
+      <c r="AB9" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="AC9" s="109"/>
-      <c r="AD9" s="109"/>
-      <c r="AE9" s="110"/>
-      <c r="AF9" s="89" t="s">
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="84"/>
+      <c r="AF9" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="AG9" s="90"/>
-      <c r="AH9" s="91"/>
+      <c r="AG9" s="74"/>
+      <c r="AH9" s="75"/>
       <c r="AI9" s="9" t="s">
         <v>39</v>
       </c>
@@ -16355,27 +16392,27 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
-      <c r="S10" s="114" t="s">
+      <c r="S10" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="97"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="78"/>
       <c r="W10" s="9"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AB10" s="108" t="s">
+      <c r="AB10" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="109"/>
-      <c r="AD10" s="109"/>
-      <c r="AE10" s="110"/>
-      <c r="AF10" s="95"/>
-      <c r="AG10" s="96"/>
-      <c r="AH10" s="97"/>
+      <c r="AC10" s="83"/>
+      <c r="AD10" s="83"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="78"/>
       <c r="AI10" s="11" t="s">
         <v>38</v>
       </c>
@@ -16392,41 +16429,41 @@
       <c r="B11" s="3"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="89" t="s">
+      <c r="E11" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="91"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="75"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="111" t="s">
+      <c r="N11" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
       <c r="R11" s="9"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="93"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="94"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="81"/>
       <c r="W11" s="9"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="32"/>
-      <c r="AB11" s="108" t="s">
+      <c r="AB11" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="AC11" s="109"/>
-      <c r="AD11" s="109"/>
-      <c r="AE11" s="110"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="94"/>
+      <c r="AC11" s="83"/>
+      <c r="AD11" s="83"/>
+      <c r="AE11" s="84"/>
+      <c r="AF11" s="79"/>
+      <c r="AG11" s="80"/>
+      <c r="AH11" s="81"/>
       <c r="AJ11" s="9"/>
       <c r="AK11" s="9"/>
       <c r="AL11" s="9"/>
@@ -16438,19 +16475,19 @@
       <c r="B12" s="3"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="97"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="78"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
       <c r="R12" s="9"/>
       <c r="S12" s="3"/>
       <c r="T12" s="9"/>
@@ -16459,17 +16496,17 @@
       <c r="W12" s="9"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="9"/>
-      <c r="AB12" s="89" t="s">
+      <c r="AB12" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="AC12" s="90"/>
-      <c r="AD12" s="90"/>
-      <c r="AE12" s="91"/>
-      <c r="AF12" s="89" t="s">
+      <c r="AC12" s="74"/>
+      <c r="AD12" s="74"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="AG12" s="90"/>
-      <c r="AH12" s="91"/>
+      <c r="AG12" s="74"/>
+      <c r="AH12" s="75"/>
       <c r="AK12" s="9"/>
       <c r="AL12" s="9"/>
       <c r="AM12" s="12"/>
@@ -16480,14 +16517,14 @@
       <c r="B13" s="3"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="97"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="78"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
@@ -16501,13 +16538,13 @@
       <c r="W13" s="9"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="9"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="95"/>
-      <c r="AG13" s="96"/>
-      <c r="AH13" s="97"/>
+      <c r="AB13" s="76"/>
+      <c r="AC13" s="77"/>
+      <c r="AD13" s="77"/>
+      <c r="AE13" s="78"/>
+      <c r="AF13" s="76"/>
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="78"/>
       <c r="AK13" s="9"/>
       <c r="AL13" s="9"/>
       <c r="AM13" s="12"/>
@@ -16518,14 +16555,14 @@
       <c r="B14" s="3"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="97"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="78"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
@@ -16539,13 +16576,13 @@
       <c r="W14" s="26"/>
       <c r="X14" s="34"/>
       <c r="Y14" s="9"/>
-      <c r="AB14" s="92"/>
-      <c r="AC14" s="93"/>
-      <c r="AD14" s="93"/>
-      <c r="AE14" s="94"/>
-      <c r="AF14" s="92"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="94"/>
+      <c r="AB14" s="79"/>
+      <c r="AC14" s="80"/>
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="81"/>
+      <c r="AF14" s="79"/>
+      <c r="AG14" s="80"/>
+      <c r="AH14" s="81"/>
       <c r="AK14" s="9"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="12"/>
@@ -16672,23 +16709,23 @@
       <c r="B19" s="3"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
-      <c r="E19" s="95" t="s">
+      <c r="E19" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="97"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="78"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="113" t="s">
+      <c r="N19" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="O19" s="111"/>
-      <c r="P19" s="111"/>
-      <c r="Q19" s="111"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
       <c r="R19" s="4"/>
       <c r="Y19" s="9"/>
       <c r="AE19" s="3" t="s">
@@ -16718,19 +16755,19 @@
       <c r="K20" s="27"/>
       <c r="L20" s="28"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="112"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="112"/>
-      <c r="Q20" s="112"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="89" t="s">
+      <c r="S20" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="T20" s="90"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="91"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="74"/>
+      <c r="W20" s="74"/>
+      <c r="X20" s="75"/>
       <c r="Y20" s="9"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="9" t="s">
@@ -16766,12 +16803,12 @@
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
-      <c r="S21" s="92"/>
-      <c r="T21" s="93"/>
-      <c r="U21" s="93"/>
-      <c r="V21" s="93"/>
-      <c r="W21" s="93"/>
-      <c r="X21" s="94"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="81"/>
       <c r="Y21" s="9"/>
       <c r="AA21" s="11" t="s">
         <v>52</v>
@@ -16808,12 +16845,12 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
-      <c r="S22" s="89" t="s">
+      <c r="S22" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="91"/>
+      <c r="T22" s="74"/>
+      <c r="U22" s="74"/>
+      <c r="V22" s="75"/>
       <c r="W22" s="9"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="9"/>
@@ -16849,10 +16886,10 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
-      <c r="S23" s="92"/>
-      <c r="T23" s="93"/>
-      <c r="U23" s="93"/>
-      <c r="V23" s="94"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="80"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="81"/>
       <c r="W23" s="9"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="9"/>
@@ -16948,11 +16985,11 @@
       </c>
       <c r="G26" s="26"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="115" t="s">
+      <c r="I26" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="J26" s="115"/>
-      <c r="K26" s="115"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
       <c r="L26" s="10"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -16988,9 +17025,9 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="115"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
       <c r="L27" s="10"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -17022,9 +17059,9 @@
       </c>
       <c r="G28" s="26"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
       <c r="L28" s="10"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -17054,32 +17091,32 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="115"/>
-      <c r="K29" s="115"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
       <c r="L29" s="10"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
-      <c r="O29" s="89" t="s">
+      <c r="O29" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="90"/>
-      <c r="T29" s="90"/>
-      <c r="U29" s="91"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="74"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="74"/>
+      <c r="U29" s="75"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
       <c r="AA29" s="3"/>
-      <c r="AB29" s="118" t="s">
+      <c r="AB29" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="AC29" s="118"/>
-      <c r="AD29" s="118"/>
-      <c r="AE29" s="118"/>
-      <c r="AF29" s="118"/>
-      <c r="AG29" s="118"/>
+      <c r="AC29" s="69"/>
+      <c r="AD29" s="69"/>
+      <c r="AE29" s="69"/>
+      <c r="AF29" s="69"/>
+      <c r="AG29" s="69"/>
       <c r="AI29" s="13"/>
       <c r="AJ29" s="9"/>
       <c r="AK29" s="9"/>
@@ -17098,30 +17135,30 @@
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="9"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="115"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
       <c r="L30" s="10"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="96"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="97"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77"/>
+      <c r="U30" s="78"/>
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
       <c r="AA30" s="3"/>
-      <c r="AB30" s="118" t="s">
+      <c r="AB30" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="AC30" s="118"/>
-      <c r="AD30" s="118"/>
-      <c r="AE30" s="118"/>
-      <c r="AF30" s="118"/>
-      <c r="AG30" s="118"/>
+      <c r="AC30" s="69"/>
+      <c r="AD30" s="69"/>
+      <c r="AE30" s="69"/>
+      <c r="AF30" s="69"/>
+      <c r="AG30" s="69"/>
       <c r="AH30" s="5"/>
       <c r="AI30" s="13"/>
       <c r="AJ30" s="9"/>
@@ -17139,33 +17176,33 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="115"/>
-      <c r="K31" s="115"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
       <c r="L31" s="10"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="96"/>
-      <c r="S31" s="96"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="97"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="77"/>
+      <c r="R31" s="77"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="77"/>
+      <c r="U31" s="78"/>
       <c r="W31" s="11" t="s">
         <v>57</v>
       </c>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
       <c r="AA31" s="3"/>
-      <c r="AB31" s="118" t="s">
+      <c r="AB31" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="AC31" s="118"/>
-      <c r="AD31" s="118"/>
-      <c r="AE31" s="118"/>
-      <c r="AF31" s="118"/>
-      <c r="AG31" s="118"/>
+      <c r="AC31" s="69"/>
+      <c r="AD31" s="69"/>
+      <c r="AE31" s="69"/>
+      <c r="AF31" s="69"/>
+      <c r="AG31" s="69"/>
       <c r="AH31" s="5"/>
       <c r="AI31" s="13"/>
       <c r="AJ31" s="9"/>
@@ -17186,33 +17223,33 @@
       <c r="G32" s="26"/>
       <c r="H32" s="9"/>
       <c r="I32" s="45"/>
-      <c r="J32" s="116" t="s">
+      <c r="J32" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="K32" s="117"/>
+      <c r="K32" s="68"/>
       <c r="L32" s="10"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="96"/>
-      <c r="R32" s="96"/>
-      <c r="S32" s="96"/>
-      <c r="T32" s="96"/>
-      <c r="U32" s="97"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="77"/>
+      <c r="R32" s="77"/>
+      <c r="S32" s="77"/>
+      <c r="T32" s="77"/>
+      <c r="U32" s="78"/>
       <c r="W32" s="32"/>
       <c r="X32" s="32"/>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
       <c r="AA32" s="3"/>
-      <c r="AB32" s="121" t="s">
+      <c r="AB32" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="AC32" s="121"/>
-      <c r="AD32" s="121"/>
-      <c r="AE32" s="121"/>
-      <c r="AF32" s="121"/>
-      <c r="AG32" s="121"/>
+      <c r="AC32" s="72"/>
+      <c r="AD32" s="72"/>
+      <c r="AE32" s="72"/>
+      <c r="AF32" s="72"/>
+      <c r="AG32" s="72"/>
       <c r="AH32" s="46" t="s">
         <v>52</v>
       </c>
@@ -17238,29 +17275,29 @@
       <c r="L33" s="34"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
-      <c r="O33" s="95" t="s">
+      <c r="O33" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="97"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="77"/>
+      <c r="R33" s="77"/>
+      <c r="S33" s="77"/>
+      <c r="T33" s="77"/>
+      <c r="U33" s="78"/>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
       <c r="AA33" s="3"/>
-      <c r="AB33" s="119" t="s">
+      <c r="AB33" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="AC33" s="120"/>
-      <c r="AD33" s="120"/>
-      <c r="AE33" s="120"/>
-      <c r="AF33" s="120"/>
-      <c r="AG33" s="120"/>
-      <c r="AH33" s="120"/>
+      <c r="AC33" s="71"/>
+      <c r="AD33" s="71"/>
+      <c r="AE33" s="71"/>
+      <c r="AF33" s="71"/>
+      <c r="AG33" s="71"/>
+      <c r="AH33" s="71"/>
       <c r="AI33" s="13"/>
       <c r="AJ33" s="9"/>
       <c r="AK33" s="9"/>
@@ -17283,26 +17320,26 @@
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="96"/>
-      <c r="Q34" s="96"/>
-      <c r="R34" s="96"/>
-      <c r="S34" s="96"/>
-      <c r="T34" s="96"/>
-      <c r="U34" s="97"/>
+      <c r="O34" s="76"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="77"/>
+      <c r="R34" s="77"/>
+      <c r="S34" s="77"/>
+      <c r="T34" s="77"/>
+      <c r="U34" s="78"/>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
       <c r="AA34" s="3"/>
-      <c r="AB34" s="120"/>
-      <c r="AC34" s="120"/>
-      <c r="AD34" s="120"/>
-      <c r="AE34" s="120"/>
-      <c r="AF34" s="120"/>
-      <c r="AG34" s="120"/>
-      <c r="AH34" s="120"/>
+      <c r="AB34" s="71"/>
+      <c r="AC34" s="71"/>
+      <c r="AD34" s="71"/>
+      <c r="AE34" s="71"/>
+      <c r="AF34" s="71"/>
+      <c r="AG34" s="71"/>
+      <c r="AH34" s="71"/>
       <c r="AI34" s="13"/>
       <c r="AJ34" s="9"/>
       <c r="AK34" s="9"/>
@@ -17325,26 +17362,26 @@
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="96"/>
-      <c r="Q35" s="96"/>
-      <c r="R35" s="96"/>
-      <c r="S35" s="96"/>
-      <c r="T35" s="96"/>
-      <c r="U35" s="97"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="77"/>
+      <c r="R35" s="77"/>
+      <c r="S35" s="77"/>
+      <c r="T35" s="77"/>
+      <c r="U35" s="78"/>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
       <c r="AA35" s="3"/>
-      <c r="AB35" s="120"/>
-      <c r="AC35" s="120"/>
-      <c r="AD35" s="120"/>
-      <c r="AE35" s="120"/>
-      <c r="AF35" s="120"/>
-      <c r="AG35" s="120"/>
-      <c r="AH35" s="120"/>
+      <c r="AB35" s="71"/>
+      <c r="AC35" s="71"/>
+      <c r="AD35" s="71"/>
+      <c r="AE35" s="71"/>
+      <c r="AF35" s="71"/>
+      <c r="AG35" s="71"/>
+      <c r="AH35" s="71"/>
       <c r="AI35" s="12"/>
       <c r="AJ35" s="9"/>
       <c r="AK35" s="9"/>
@@ -17367,26 +17404,26 @@
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
-      <c r="O36" s="92"/>
-      <c r="P36" s="93"/>
-      <c r="Q36" s="93"/>
-      <c r="R36" s="93"/>
-      <c r="S36" s="93"/>
-      <c r="T36" s="93"/>
-      <c r="U36" s="94"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="80"/>
+      <c r="Q36" s="80"/>
+      <c r="R36" s="80"/>
+      <c r="S36" s="80"/>
+      <c r="T36" s="80"/>
+      <c r="U36" s="81"/>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
       <c r="AA36" s="3"/>
-      <c r="AB36" s="120"/>
-      <c r="AC36" s="120"/>
-      <c r="AD36" s="120"/>
-      <c r="AE36" s="120"/>
-      <c r="AF36" s="120"/>
-      <c r="AG36" s="120"/>
-      <c r="AH36" s="120"/>
+      <c r="AB36" s="71"/>
+      <c r="AC36" s="71"/>
+      <c r="AD36" s="71"/>
+      <c r="AE36" s="71"/>
+      <c r="AF36" s="71"/>
+      <c r="AG36" s="71"/>
+      <c r="AH36" s="71"/>
       <c r="AI36" s="12"/>
       <c r="AJ36" s="9"/>
       <c r="AK36" s="9"/>
@@ -20486,15 +20523,24 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="I26:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="AB31:AG31"/>
-    <mergeCell ref="AB33:AH36"/>
-    <mergeCell ref="AB29:AG29"/>
-    <mergeCell ref="AB30:AG30"/>
-    <mergeCell ref="AB32:AG32"/>
-    <mergeCell ref="O29:U32"/>
-    <mergeCell ref="O33:U36"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="S22:V23"/>
+    <mergeCell ref="E11:L14"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
     <mergeCell ref="AB8:AH8"/>
     <mergeCell ref="N11:Q12"/>
     <mergeCell ref="N19:Q20"/>
@@ -20507,24 +20553,15 @@
     <mergeCell ref="AB12:AE14"/>
     <mergeCell ref="AF9:AH11"/>
     <mergeCell ref="AF12:AH14"/>
-    <mergeCell ref="S22:V23"/>
-    <mergeCell ref="E11:L14"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="I26:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="AB31:AG31"/>
+    <mergeCell ref="AB33:AH36"/>
+    <mergeCell ref="AB29:AG29"/>
+    <mergeCell ref="AB30:AG30"/>
+    <mergeCell ref="AB32:AG32"/>
+    <mergeCell ref="O29:U32"/>
+    <mergeCell ref="O33:U36"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -20540,8 +20577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36E8D9-AC9B-4343-A529-1E9F171CCE1F}">
   <dimension ref="A1:AN117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AR14" sqref="AR14"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V43" sqref="V43:AD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -20550,23 +20587,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="107" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
       <c r="N1" s="123" t="s">
         <v>256</v>
       </c>
@@ -20606,7 +20643,7 @@
       <c r="AN1" s="128"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="101"/>
+      <c r="A2" s="92"/>
       <c r="B2" s="122"/>
       <c r="C2" s="122"/>
       <c r="D2" s="122"/>
@@ -20615,23 +20652,23 @@
       <c r="G2" s="122"/>
       <c r="H2" s="122"/>
       <c r="I2" s="122"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="78" t="s">
+      <c r="J2" s="94"/>
+      <c r="K2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78" t="s">
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111" t="s">
         <v>251</v>
       </c>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
       <c r="W2" s="129" t="s">
         <v>1</v>
       </c>
@@ -20660,21 +20697,21 @@
       <c r="AN2" s="131"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="104"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="69" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="70"/>
-      <c r="M3" s="71"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="104"/>
       <c r="N3" s="124"/>
       <c r="O3" s="125"/>
       <c r="P3" s="125"/>
@@ -22284,15 +22321,17 @@
       <c r="S43" s="51"/>
       <c r="T43" s="51"/>
       <c r="U43" s="51"/>
-      <c r="V43" s="51"/>
-      <c r="W43" s="51"/>
-      <c r="X43" s="51"/>
-      <c r="Y43" s="51"/>
-      <c r="Z43" s="51"/>
-      <c r="AA43" s="51"/>
-      <c r="AB43" s="51"/>
-      <c r="AC43" s="51"/>
-      <c r="AD43" s="51"/>
+      <c r="V43" s="215" t="s">
+        <v>329</v>
+      </c>
+      <c r="W43" s="215"/>
+      <c r="X43" s="215"/>
+      <c r="Y43" s="215"/>
+      <c r="Z43" s="215"/>
+      <c r="AA43" s="215"/>
+      <c r="AB43" s="215"/>
+      <c r="AC43" s="215"/>
+      <c r="AD43" s="215"/>
       <c r="AE43" s="51"/>
       <c r="AF43" s="51"/>
       <c r="AG43" s="51"/>
@@ -22328,15 +22367,17 @@
       <c r="S44" s="30"/>
       <c r="T44" s="30"/>
       <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="30"/>
-      <c r="Z44" s="30"/>
-      <c r="AA44" s="30"/>
-      <c r="AB44" s="30"/>
-      <c r="AC44" s="30"/>
-      <c r="AD44" s="30"/>
+      <c r="V44" s="216" t="s">
+        <v>330</v>
+      </c>
+      <c r="W44" s="216"/>
+      <c r="X44" s="216"/>
+      <c r="Y44" s="216"/>
+      <c r="Z44" s="216"/>
+      <c r="AA44" s="216"/>
+      <c r="AB44" s="216"/>
+      <c r="AC44" s="216"/>
+      <c r="AD44" s="216"/>
       <c r="AE44" s="30"/>
       <c r="AF44" s="30"/>
       <c r="AG44" s="30"/>
@@ -25479,47 +25520,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="107" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107" t="s">
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98" t="s">
         <v>278</v>
       </c>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107" t="s">
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107" t="s">
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98"/>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="98"/>
+      <c r="AE1" s="98"/>
       <c r="AF1" s="132" t="s">
         <v>4</v>
       </c>
@@ -25535,7 +25576,7 @@
       <c r="AN1" s="128"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="101"/>
+      <c r="A2" s="92"/>
       <c r="B2" s="122"/>
       <c r="C2" s="122"/>
       <c r="D2" s="122"/>
@@ -25544,25 +25585,25 @@
       <c r="G2" s="122"/>
       <c r="H2" s="122"/>
       <c r="I2" s="122"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="78" t="s">
+      <c r="J2" s="94"/>
+      <c r="K2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78" t="s">
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="78"/>
+      <c r="X2" s="111"/>
       <c r="Y2" s="129" t="s">
         <v>79</v>
       </c>
@@ -25587,21 +25628,21 @@
       <c r="AN2" s="136"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="104"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="69" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="70"/>
-      <c r="M3" s="71"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="104"/>
       <c r="N3" s="124"/>
       <c r="O3" s="125"/>
       <c r="P3" s="125"/>
@@ -30116,47 +30157,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="107" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="98" t="s">
         <v>254</v>
       </c>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107" t="s">
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98" t="s">
         <v>253</v>
       </c>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107" t="s">
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107" t="s">
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98" t="s">
         <v>252</v>
       </c>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98"/>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="98"/>
+      <c r="AE1" s="98"/>
       <c r="AF1" s="132" t="s">
         <v>4</v>
       </c>
@@ -30172,7 +30213,7 @@
       <c r="AN1" s="128"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="101"/>
+      <c r="A2" s="92"/>
       <c r="B2" s="122"/>
       <c r="C2" s="122"/>
       <c r="D2" s="122"/>
@@ -30181,36 +30222,36 @@
       <c r="G2" s="122"/>
       <c r="H2" s="122"/>
       <c r="I2" s="122"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="78" t="s">
+      <c r="J2" s="94"/>
+      <c r="K2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78" t="s">
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111" t="s">
         <v>251</v>
       </c>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78" t="s">
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="78"/>
+      <c r="X2" s="111"/>
       <c r="Y2" s="138" t="s">
         <v>298</v>
       </c>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="78"/>
+      <c r="Z2" s="111"/>
+      <c r="AA2" s="111"/>
+      <c r="AB2" s="111"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="111"/>
+      <c r="AE2" s="111"/>
       <c r="AF2" s="133" t="s">
         <v>3</v>
       </c>
@@ -30226,21 +30267,21 @@
       <c r="AN2" s="141"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="104"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="69" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="70"/>
-      <c r="M3" s="71"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="104"/>
       <c r="N3" s="124"/>
       <c r="O3" s="125"/>
       <c r="P3" s="125"/>
@@ -34721,47 +34762,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="107" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107" t="s">
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107" t="s">
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107" t="s">
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98"/>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="98"/>
+      <c r="AE1" s="98"/>
       <c r="AF1" s="132" t="s">
         <v>4</v>
       </c>
@@ -34777,7 +34818,7 @@
       <c r="AN1" s="128"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="101"/>
+      <c r="A2" s="92"/>
       <c r="B2" s="122"/>
       <c r="C2" s="122"/>
       <c r="D2" s="122"/>
@@ -34786,27 +34827,27 @@
       <c r="G2" s="122"/>
       <c r="H2" s="122"/>
       <c r="I2" s="122"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="78" t="s">
+      <c r="J2" s="94"/>
+      <c r="K2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78" t="s">
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111" t="s">
         <v>251</v>
       </c>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78" t="s">
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="78"/>
+      <c r="X2" s="111"/>
       <c r="Y2" s="139" t="s">
         <v>79</v>
       </c>
@@ -34831,21 +34872,21 @@
       <c r="AN2" s="141"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="104"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="69" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="70"/>
-      <c r="M3" s="71"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="104"/>
       <c r="N3" s="124"/>
       <c r="O3" s="125"/>
       <c r="P3" s="125"/>
@@ -39349,47 +39390,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="107" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107" t="s">
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107" t="s">
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107" t="s">
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98"/>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="98"/>
+      <c r="AE1" s="98"/>
       <c r="AF1" s="132" t="s">
         <v>4</v>
       </c>
@@ -39405,7 +39446,7 @@
       <c r="AN1" s="128"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="101"/>
+      <c r="A2" s="92"/>
       <c r="B2" s="122"/>
       <c r="C2" s="122"/>
       <c r="D2" s="122"/>
@@ -39414,27 +39455,27 @@
       <c r="G2" s="122"/>
       <c r="H2" s="122"/>
       <c r="I2" s="122"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="78" t="s">
+      <c r="J2" s="94"/>
+      <c r="K2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78" t="s">
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111" t="s">
         <v>258</v>
       </c>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78" t="s">
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="78"/>
+      <c r="X2" s="111"/>
       <c r="Y2" s="142" t="s">
         <v>298</v>
       </c>
@@ -39459,21 +39500,21 @@
       <c r="AN2" s="141"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="104"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="69" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="70"/>
-      <c r="M3" s="71"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="104"/>
       <c r="N3" s="124"/>
       <c r="O3" s="125"/>
       <c r="P3" s="125"/>
@@ -44042,23 +44083,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="107" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
       <c r="N1" s="123" t="s">
         <v>77</v>
       </c>
@@ -44098,21 +44139,21 @@
       <c r="AN1" s="128"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="78" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
       <c r="N2" s="129" t="s">
         <v>258</v>
       </c>
@@ -44152,48 +44193,48 @@
       <c r="AN2" s="131"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="104"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="69" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="70"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="73"/>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="73"/>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="74"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="106"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="106"/>
+      <c r="AE3" s="106"/>
+      <c r="AF3" s="106"/>
+      <c r="AG3" s="106"/>
+      <c r="AH3" s="106"/>
+      <c r="AI3" s="106"/>
+      <c r="AJ3" s="106"/>
+      <c r="AK3" s="106"/>
+      <c r="AL3" s="106"/>
+      <c r="AM3" s="106"/>
+      <c r="AN3" s="107"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="30"/>
@@ -44372,26 +44413,26 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="189" t="s">
+      <c r="D9" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="143"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="202" t="s">
+      <c r="O9" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="P9" s="202"/>
-      <c r="Q9" s="202"/>
-      <c r="R9" s="202"/>
-      <c r="S9" s="202"/>
+      <c r="P9" s="156"/>
+      <c r="Q9" s="156"/>
+      <c r="R9" s="156"/>
+      <c r="S9" s="156"/>
       <c r="T9" s="10"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
@@ -44418,12 +44459,12 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="190" t="s">
+      <c r="D10" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="190"/>
-      <c r="F10" s="190"/>
-      <c r="G10" s="190"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -44431,14 +44472,14 @@
       <c r="L10" s="5"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="151" t="s">
+      <c r="O10" s="184" t="s">
         <v>92</v>
       </c>
-      <c r="P10" s="151"/>
-      <c r="Q10" s="151" t="s">
+      <c r="P10" s="184"/>
+      <c r="Q10" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="R10" s="151"/>
+      <c r="R10" s="184"/>
       <c r="T10" s="10"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
@@ -44465,26 +44506,26 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="191" t="s">
+      <c r="D11" s="82"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="145" t="s">
         <v>62</v>
       </c>
-      <c r="M11" s="192"/>
+      <c r="M11" s="146"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="193" t="s">
+      <c r="O11" s="147" t="s">
         <v>82</v>
       </c>
-      <c r="P11" s="194"/>
-      <c r="Q11" s="194"/>
-      <c r="R11" s="194"/>
-      <c r="S11" s="195"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="148"/>
+      <c r="S11" s="149"/>
       <c r="T11" s="10"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
@@ -44522,11 +44563,11 @@
       <c r="L12" s="4"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="196"/>
-      <c r="P12" s="197"/>
-      <c r="Q12" s="197"/>
-      <c r="R12" s="197"/>
-      <c r="S12" s="198"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="151"/>
+      <c r="S12" s="152"/>
       <c r="T12" s="12"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
@@ -44552,27 +44593,27 @@
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="203" t="s">
+      <c r="C13" s="157" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="204"/>
-      <c r="E13" s="204"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="158"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="96" t="s">
+      <c r="G13" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="97"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="145"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="160"/>
+      <c r="K13" s="160"/>
+      <c r="L13" s="160"/>
+      <c r="M13" s="161"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="196"/>
-      <c r="P13" s="197"/>
-      <c r="Q13" s="197"/>
-      <c r="R13" s="197"/>
-      <c r="S13" s="198"/>
+      <c r="O13" s="150"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="151"/>
+      <c r="S13" s="152"/>
       <c r="T13" s="12"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
@@ -44598,14 +44639,14 @@
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
       <c r="I14" s="4"/>
@@ -44614,11 +44655,11 @@
       <c r="L14" s="4"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="196"/>
-      <c r="P14" s="197"/>
-      <c r="Q14" s="197"/>
-      <c r="R14" s="197"/>
-      <c r="S14" s="198"/>
+      <c r="O14" s="150"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="151"/>
+      <c r="S14" s="152"/>
       <c r="T14" s="12"/>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
@@ -44644,25 +44685,25 @@
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="96" t="s">
+      <c r="C15" s="76"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="97"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="144"/>
-      <c r="M15" s="145"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="160"/>
+      <c r="L15" s="160"/>
+      <c r="M15" s="161"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="196"/>
-      <c r="P15" s="197"/>
-      <c r="Q15" s="197"/>
-      <c r="R15" s="197"/>
-      <c r="S15" s="198"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="151"/>
+      <c r="R15" s="151"/>
+      <c r="S15" s="152"/>
       <c r="T15" s="12"/>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
@@ -44688,14 +44729,14 @@
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="115" t="s">
+      <c r="D16" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
       <c r="G16" s="50"/>
       <c r="H16" s="50"/>
       <c r="I16" s="4"/>
@@ -44704,11 +44745,11 @@
       <c r="L16" s="4"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="196"/>
-      <c r="P16" s="197"/>
-      <c r="Q16" s="197"/>
-      <c r="R16" s="197"/>
-      <c r="S16" s="198"/>
+      <c r="O16" s="150"/>
+      <c r="P16" s="151"/>
+      <c r="Q16" s="151"/>
+      <c r="R16" s="151"/>
+      <c r="S16" s="152"/>
       <c r="T16" s="13"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
@@ -44734,25 +44775,25 @@
     <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
       <c r="G17" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="97"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="145"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="160"/>
+      <c r="K17" s="160"/>
+      <c r="L17" s="160"/>
+      <c r="M17" s="161"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="196"/>
-      <c r="P17" s="197"/>
-      <c r="Q17" s="197"/>
-      <c r="R17" s="197"/>
-      <c r="S17" s="198"/>
+      <c r="O17" s="150"/>
+      <c r="P17" s="151"/>
+      <c r="Q17" s="151"/>
+      <c r="R17" s="151"/>
+      <c r="S17" s="152"/>
       <c r="T17" s="13"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
@@ -44781,11 +44822,11 @@
       <c r="C18" s="14"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="O18" s="196"/>
-      <c r="P18" s="197"/>
-      <c r="Q18" s="197"/>
-      <c r="R18" s="197"/>
-      <c r="S18" s="198"/>
+      <c r="O18" s="150"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="151"/>
+      <c r="R18" s="151"/>
+      <c r="S18" s="152"/>
       <c r="T18" s="13"/>
       <c r="U18" s="5"/>
       <c r="V18" s="4" t="s">
@@ -44814,23 +44855,23 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="185" t="s">
+      <c r="D19" s="179" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="186"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="186"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="186"/>
-      <c r="J19" s="186"/>
-      <c r="K19" s="186"/>
-      <c r="L19" s="186"/>
-      <c r="M19" s="187"/>
-      <c r="O19" s="199"/>
-      <c r="P19" s="200"/>
-      <c r="Q19" s="200"/>
-      <c r="R19" s="200"/>
-      <c r="S19" s="201"/>
+      <c r="E19" s="180"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="180"/>
+      <c r="I19" s="180"/>
+      <c r="J19" s="180"/>
+      <c r="K19" s="180"/>
+      <c r="L19" s="180"/>
+      <c r="M19" s="181"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="154"/>
+      <c r="Q19" s="154"/>
+      <c r="R19" s="154"/>
+      <c r="S19" s="155"/>
       <c r="T19" s="13"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
@@ -44889,18 +44930,18 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="168" t="s">
+      <c r="D21" s="162" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="169"/>
-      <c r="F21" s="169"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="171" t="s">
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="165" t="s">
         <v>76</v>
       </c>
-      <c r="I21" s="171"/>
-      <c r="J21" s="171"/>
-      <c r="K21" s="172"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="166"/>
       <c r="T21" s="10"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
@@ -44936,15 +44977,15 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="188"/>
-      <c r="L22" s="188"/>
-      <c r="M22" s="188"/>
-      <c r="N22" s="188"/>
-      <c r="O22" s="188"/>
-      <c r="P22" s="188"/>
-      <c r="Q22" s="188"/>
-      <c r="R22" s="188"/>
-      <c r="S22" s="165"/>
+      <c r="K22" s="182"/>
+      <c r="L22" s="182"/>
+      <c r="M22" s="182"/>
+      <c r="N22" s="182"/>
+      <c r="O22" s="182"/>
+      <c r="P22" s="182"/>
+      <c r="Q22" s="182"/>
+      <c r="R22" s="182"/>
+      <c r="S22" s="198"/>
       <c r="T22" s="10"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
@@ -44992,7 +45033,7 @@
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
-      <c r="S23" s="166"/>
+      <c r="S23" s="199"/>
       <c r="T23" s="10"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
@@ -45019,22 +45060,22 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="173"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="175"/>
-      <c r="I24" s="182"/>
-      <c r="J24" s="174"/>
-      <c r="K24" s="174"/>
-      <c r="L24" s="174"/>
-      <c r="M24" s="175"/>
-      <c r="N24" s="154"/>
-      <c r="O24" s="155"/>
-      <c r="P24" s="155"/>
-      <c r="Q24" s="155"/>
-      <c r="R24" s="156"/>
-      <c r="S24" s="166"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="168"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="176"/>
+      <c r="J24" s="168"/>
+      <c r="K24" s="168"/>
+      <c r="L24" s="168"/>
+      <c r="M24" s="169"/>
+      <c r="N24" s="187"/>
+      <c r="O24" s="188"/>
+      <c r="P24" s="188"/>
+      <c r="Q24" s="188"/>
+      <c r="R24" s="189"/>
+      <c r="S24" s="199"/>
       <c r="T24" s="12"/>
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
@@ -45061,22 +45102,22 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="176"/>
-      <c r="E25" s="177"/>
-      <c r="F25" s="177"/>
-      <c r="G25" s="177"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="183"/>
-      <c r="J25" s="177"/>
-      <c r="K25" s="177"/>
-      <c r="L25" s="177"/>
-      <c r="M25" s="178"/>
-      <c r="N25" s="157"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="158"/>
-      <c r="Q25" s="158"/>
-      <c r="R25" s="159"/>
-      <c r="S25" s="166"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="171"/>
+      <c r="K25" s="171"/>
+      <c r="L25" s="171"/>
+      <c r="M25" s="172"/>
+      <c r="N25" s="190"/>
+      <c r="O25" s="191"/>
+      <c r="P25" s="191"/>
+      <c r="Q25" s="191"/>
+      <c r="R25" s="192"/>
+      <c r="S25" s="199"/>
       <c r="T25" s="12"/>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
@@ -45103,22 +45144,22 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="14"/>
-      <c r="D26" s="176"/>
-      <c r="E26" s="177"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="183"/>
-      <c r="J26" s="177"/>
-      <c r="K26" s="177"/>
-      <c r="L26" s="177"/>
-      <c r="M26" s="178"/>
-      <c r="N26" s="157"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="158"/>
-      <c r="Q26" s="158"/>
-      <c r="R26" s="159"/>
-      <c r="S26" s="166"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="171"/>
+      <c r="K26" s="171"/>
+      <c r="L26" s="171"/>
+      <c r="M26" s="172"/>
+      <c r="N26" s="190"/>
+      <c r="O26" s="191"/>
+      <c r="P26" s="191"/>
+      <c r="Q26" s="191"/>
+      <c r="R26" s="192"/>
+      <c r="S26" s="199"/>
       <c r="T26" s="12"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
@@ -45145,22 +45186,22 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="14"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="184"/>
-      <c r="J27" s="180"/>
-      <c r="K27" s="180"/>
-      <c r="L27" s="180"/>
-      <c r="M27" s="181"/>
-      <c r="N27" s="160"/>
-      <c r="O27" s="161"/>
-      <c r="P27" s="161"/>
-      <c r="Q27" s="161"/>
-      <c r="R27" s="162"/>
-      <c r="S27" s="166"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="174"/>
+      <c r="L27" s="174"/>
+      <c r="M27" s="175"/>
+      <c r="N27" s="193"/>
+      <c r="O27" s="194"/>
+      <c r="P27" s="194"/>
+      <c r="Q27" s="194"/>
+      <c r="R27" s="195"/>
+      <c r="S27" s="199"/>
       <c r="T27" s="13"/>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
@@ -45208,7 +45249,7 @@
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
       <c r="R28" s="18"/>
-      <c r="S28" s="166"/>
+      <c r="S28" s="199"/>
       <c r="T28" s="13"/>
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
@@ -45235,22 +45276,22 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="14"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="152"/>
-      <c r="I29" s="152"/>
-      <c r="J29" s="152"/>
-      <c r="K29" s="152"/>
-      <c r="L29" s="152"/>
-      <c r="M29" s="152"/>
-      <c r="N29" s="167"/>
-      <c r="O29" s="167"/>
-      <c r="P29" s="167"/>
-      <c r="Q29" s="167"/>
-      <c r="R29" s="167"/>
-      <c r="S29" s="166"/>
+      <c r="D29" s="186"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="185"/>
+      <c r="K29" s="185"/>
+      <c r="L29" s="185"/>
+      <c r="M29" s="185"/>
+      <c r="N29" s="200"/>
+      <c r="O29" s="200"/>
+      <c r="P29" s="200"/>
+      <c r="Q29" s="200"/>
+      <c r="R29" s="200"/>
+      <c r="S29" s="199"/>
       <c r="T29" s="10"/>
       <c r="U29" s="4"/>
       <c r="V29" s="5"/>
@@ -45277,22 +45318,22 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="14"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="152"/>
-      <c r="H30" s="152"/>
-      <c r="I30" s="152"/>
-      <c r="J30" s="152"/>
-      <c r="K30" s="152"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="152"/>
-      <c r="N30" s="167"/>
-      <c r="O30" s="167"/>
-      <c r="P30" s="167"/>
-      <c r="Q30" s="167"/>
-      <c r="R30" s="167"/>
-      <c r="S30" s="166"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="185"/>
+      <c r="K30" s="185"/>
+      <c r="L30" s="185"/>
+      <c r="M30" s="185"/>
+      <c r="N30" s="200"/>
+      <c r="O30" s="200"/>
+      <c r="P30" s="200"/>
+      <c r="Q30" s="200"/>
+      <c r="R30" s="200"/>
+      <c r="S30" s="199"/>
       <c r="T30" s="10"/>
       <c r="U30" s="4"/>
       <c r="V30" s="5"/>
@@ -45319,22 +45360,22 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="14"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="152"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="152"/>
-      <c r="J31" s="152"/>
-      <c r="K31" s="152"/>
-      <c r="L31" s="152"/>
-      <c r="M31" s="152"/>
-      <c r="N31" s="167"/>
-      <c r="O31" s="167"/>
-      <c r="P31" s="167"/>
-      <c r="Q31" s="167"/>
-      <c r="R31" s="167"/>
-      <c r="S31" s="166"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="185"/>
+      <c r="F31" s="185"/>
+      <c r="G31" s="185"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="185"/>
+      <c r="J31" s="185"/>
+      <c r="K31" s="185"/>
+      <c r="L31" s="185"/>
+      <c r="M31" s="185"/>
+      <c r="N31" s="200"/>
+      <c r="O31" s="200"/>
+      <c r="P31" s="200"/>
+      <c r="Q31" s="200"/>
+      <c r="R31" s="200"/>
+      <c r="S31" s="199"/>
       <c r="T31" s="10"/>
       <c r="U31" s="4"/>
       <c r="V31" s="5"/>
@@ -45361,22 +45402,22 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="14"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="152"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="152"/>
-      <c r="H32" s="152"/>
-      <c r="I32" s="152"/>
-      <c r="J32" s="152"/>
-      <c r="K32" s="152"/>
-      <c r="L32" s="152"/>
-      <c r="M32" s="152"/>
-      <c r="N32" s="167"/>
-      <c r="O32" s="167"/>
-      <c r="P32" s="167"/>
-      <c r="Q32" s="167"/>
-      <c r="R32" s="167"/>
-      <c r="S32" s="166"/>
+      <c r="D32" s="186"/>
+      <c r="E32" s="185"/>
+      <c r="F32" s="185"/>
+      <c r="G32" s="185"/>
+      <c r="H32" s="185"/>
+      <c r="I32" s="185"/>
+      <c r="J32" s="185"/>
+      <c r="K32" s="185"/>
+      <c r="L32" s="185"/>
+      <c r="M32" s="185"/>
+      <c r="N32" s="200"/>
+      <c r="O32" s="200"/>
+      <c r="P32" s="200"/>
+      <c r="Q32" s="200"/>
+      <c r="R32" s="200"/>
+      <c r="S32" s="199"/>
       <c r="T32" s="10"/>
       <c r="U32" s="4"/>
       <c r="V32" s="5"/>
@@ -45403,22 +45444,22 @@
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="152"/>
-      <c r="H33" s="152"/>
-      <c r="I33" s="152"/>
-      <c r="J33" s="152"/>
-      <c r="K33" s="152"/>
-      <c r="L33" s="152"/>
-      <c r="M33" s="152"/>
-      <c r="N33" s="167"/>
-      <c r="O33" s="167"/>
-      <c r="P33" s="167"/>
-      <c r="Q33" s="167"/>
-      <c r="R33" s="167"/>
-      <c r="S33" s="166"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="185"/>
+      <c r="F33" s="185"/>
+      <c r="G33" s="185"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="185"/>
+      <c r="K33" s="185"/>
+      <c r="L33" s="185"/>
+      <c r="M33" s="185"/>
+      <c r="N33" s="200"/>
+      <c r="O33" s="200"/>
+      <c r="P33" s="200"/>
+      <c r="Q33" s="200"/>
+      <c r="R33" s="200"/>
+      <c r="S33" s="199"/>
       <c r="T33" s="10"/>
       <c r="U33" s="4"/>
       <c r="V33" s="5"/>
@@ -45446,21 +45487,21 @@
       <c r="B34" s="3"/>
       <c r="C34" s="14"/>
       <c r="D34" s="23"/>
-      <c r="E34" s="163"/>
-      <c r="F34" s="163"/>
-      <c r="G34" s="163"/>
-      <c r="H34" s="163"/>
-      <c r="I34" s="163"/>
-      <c r="J34" s="163"/>
-      <c r="K34" s="163"/>
-      <c r="L34" s="163"/>
-      <c r="M34" s="163"/>
-      <c r="N34" s="163"/>
-      <c r="O34" s="163"/>
-      <c r="P34" s="163"/>
-      <c r="Q34" s="163"/>
-      <c r="R34" s="163"/>
-      <c r="S34" s="164"/>
+      <c r="E34" s="196"/>
+      <c r="F34" s="196"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="196"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="196"/>
+      <c r="K34" s="196"/>
+      <c r="L34" s="196"/>
+      <c r="M34" s="196"/>
+      <c r="N34" s="196"/>
+      <c r="O34" s="196"/>
+      <c r="P34" s="196"/>
+      <c r="Q34" s="196"/>
+      <c r="R34" s="196"/>
+      <c r="S34" s="197"/>
       <c r="T34" s="10"/>
       <c r="U34" s="4"/>
       <c r="V34" s="9"/>
@@ -45828,13 +45869,13 @@
       <c r="D43" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="E43" s="150" t="s">
+      <c r="E43" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
+      <c r="F43" s="183"/>
+      <c r="G43" s="183"/>
+      <c r="H43" s="183"/>
+      <c r="I43" s="183"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -46130,13 +46171,13 @@
       <c r="D50" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E50" s="150" t="s">
+      <c r="E50" s="183" t="s">
         <v>63</v>
       </c>
-      <c r="F50" s="150"/>
-      <c r="G50" s="150"/>
-      <c r="H50" s="150"/>
-      <c r="I50" s="150"/>
+      <c r="F50" s="183"/>
+      <c r="G50" s="183"/>
+      <c r="H50" s="183"/>
+      <c r="I50" s="183"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -46303,13 +46344,13 @@
       <c r="D54" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="150" t="s">
+      <c r="E54" s="183" t="s">
         <v>96</v>
       </c>
-      <c r="F54" s="150"/>
-      <c r="G54" s="150"/>
-      <c r="H54" s="150"/>
-      <c r="I54" s="150"/>
+      <c r="F54" s="183"/>
+      <c r="G54" s="183"/>
+      <c r="H54" s="183"/>
+      <c r="I54" s="183"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
@@ -46459,13 +46500,13 @@
       <c r="D58" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="E58" s="150" t="s">
+      <c r="E58" s="183" t="s">
         <v>62</v>
       </c>
-      <c r="F58" s="150"/>
-      <c r="G58" s="150"/>
-      <c r="H58" s="150"/>
-      <c r="I58" s="150"/>
+      <c r="F58" s="183"/>
+      <c r="G58" s="183"/>
+      <c r="H58" s="183"/>
+      <c r="I58" s="183"/>
       <c r="AB58" s="9"/>
       <c r="AC58" s="9"/>
       <c r="AD58" s="9"/>
@@ -46549,13 +46590,13 @@
       <c r="D61" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="E61" s="150" t="s">
+      <c r="E61" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="F61" s="150"/>
-      <c r="G61" s="150"/>
-      <c r="H61" s="150"/>
-      <c r="I61" s="150"/>
+      <c r="F61" s="183"/>
+      <c r="G61" s="183"/>
+      <c r="H61" s="183"/>
+      <c r="I61" s="183"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
@@ -47328,18 +47369,18 @@
       <c r="C79" s="47">
         <v>1</v>
       </c>
-      <c r="D79" s="143" t="s">
+      <c r="D79" s="159" t="s">
         <v>300</v>
       </c>
-      <c r="E79" s="144"/>
-      <c r="F79" s="144"/>
-      <c r="G79" s="145"/>
-      <c r="H79" s="143" t="s">
+      <c r="E79" s="160"/>
+      <c r="F79" s="160"/>
+      <c r="G79" s="161"/>
+      <c r="H79" s="159" t="s">
         <v>109</v>
       </c>
-      <c r="I79" s="144"/>
-      <c r="J79" s="144"/>
-      <c r="K79" s="145"/>
+      <c r="I79" s="160"/>
+      <c r="J79" s="160"/>
+      <c r="K79" s="161"/>
       <c r="L79" s="36" t="s">
         <v>301</v>
       </c>
@@ -47359,17 +47400,17 @@
         <v>10</v>
       </c>
       <c r="V79" s="38"/>
-      <c r="W79" s="116" t="s">
+      <c r="W79" s="67" t="s">
         <v>303</v>
       </c>
-      <c r="X79" s="149"/>
-      <c r="Y79" s="149"/>
-      <c r="Z79" s="117"/>
-      <c r="AA79" s="143" t="s">
+      <c r="X79" s="201"/>
+      <c r="Y79" s="201"/>
+      <c r="Z79" s="68"/>
+      <c r="AA79" s="159" t="s">
         <v>304</v>
       </c>
-      <c r="AB79" s="144"/>
-      <c r="AC79" s="145"/>
+      <c r="AB79" s="160"/>
+      <c r="AC79" s="161"/>
       <c r="AD79" s="36"/>
       <c r="AE79" s="37"/>
       <c r="AF79" s="37"/>
@@ -47388,18 +47429,18 @@
       <c r="C80" s="47">
         <v>2</v>
       </c>
-      <c r="D80" s="143" t="s">
+      <c r="D80" s="159" t="s">
         <v>300</v>
       </c>
-      <c r="E80" s="144"/>
-      <c r="F80" s="144"/>
-      <c r="G80" s="145"/>
-      <c r="H80" s="143" t="s">
+      <c r="E80" s="160"/>
+      <c r="F80" s="160"/>
+      <c r="G80" s="161"/>
+      <c r="H80" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="I80" s="144"/>
-      <c r="J80" s="144"/>
-      <c r="K80" s="145"/>
+      <c r="I80" s="160"/>
+      <c r="J80" s="160"/>
+      <c r="K80" s="161"/>
       <c r="L80" s="36" t="s">
         <v>312</v>
       </c>
@@ -47438,18 +47479,18 @@
       <c r="C81" s="47">
         <v>3</v>
       </c>
-      <c r="D81" s="143" t="s">
+      <c r="D81" s="159" t="s">
         <v>300</v>
       </c>
-      <c r="E81" s="144"/>
-      <c r="F81" s="144"/>
-      <c r="G81" s="145"/>
-      <c r="H81" s="143" t="s">
+      <c r="E81" s="160"/>
+      <c r="F81" s="160"/>
+      <c r="G81" s="161"/>
+      <c r="H81" s="159" t="s">
         <v>86</v>
       </c>
-      <c r="I81" s="144"/>
-      <c r="J81" s="144"/>
-      <c r="K81" s="145"/>
+      <c r="I81" s="160"/>
+      <c r="J81" s="160"/>
+      <c r="K81" s="161"/>
       <c r="L81" s="36" t="s">
         <v>311</v>
       </c>
@@ -47488,18 +47529,18 @@
       <c r="C82" s="47">
         <v>4</v>
       </c>
-      <c r="D82" s="143" t="s">
+      <c r="D82" s="159" t="s">
         <v>300</v>
       </c>
-      <c r="E82" s="144"/>
-      <c r="F82" s="144"/>
-      <c r="G82" s="145"/>
-      <c r="H82" s="143" t="s">
+      <c r="E82" s="160"/>
+      <c r="F82" s="160"/>
+      <c r="G82" s="161"/>
+      <c r="H82" s="159" t="s">
         <v>313</v>
       </c>
-      <c r="I82" s="144"/>
-      <c r="J82" s="144"/>
-      <c r="K82" s="145"/>
+      <c r="I82" s="160"/>
+      <c r="J82" s="160"/>
+      <c r="K82" s="161"/>
       <c r="L82" s="36" t="s">
         <v>144</v>
       </c>
@@ -47515,17 +47556,17 @@
       <c r="T82" s="38"/>
       <c r="U82" s="36"/>
       <c r="V82" s="38"/>
-      <c r="W82" s="116" t="s">
+      <c r="W82" s="67" t="s">
         <v>303</v>
       </c>
-      <c r="X82" s="149"/>
-      <c r="Y82" s="149"/>
-      <c r="Z82" s="117"/>
-      <c r="AA82" s="143" t="s">
+      <c r="X82" s="201"/>
+      <c r="Y82" s="201"/>
+      <c r="Z82" s="68"/>
+      <c r="AA82" s="159" t="s">
         <v>324</v>
       </c>
-      <c r="AB82" s="144"/>
-      <c r="AC82" s="145"/>
+      <c r="AB82" s="160"/>
+      <c r="AC82" s="161"/>
       <c r="AD82" s="36"/>
       <c r="AE82" s="37"/>
       <c r="AF82" s="37"/>
@@ -47544,18 +47585,18 @@
       <c r="C83" s="47">
         <v>5</v>
       </c>
-      <c r="D83" s="143" t="s">
+      <c r="D83" s="159" t="s">
         <v>300</v>
       </c>
-      <c r="E83" s="144"/>
-      <c r="F83" s="144"/>
-      <c r="G83" s="145"/>
-      <c r="H83" s="143" t="s">
+      <c r="E83" s="160"/>
+      <c r="F83" s="160"/>
+      <c r="G83" s="161"/>
+      <c r="H83" s="159" t="s">
         <v>314</v>
       </c>
-      <c r="I83" s="144"/>
-      <c r="J83" s="144"/>
-      <c r="K83" s="145"/>
+      <c r="I83" s="160"/>
+      <c r="J83" s="160"/>
+      <c r="K83" s="161"/>
       <c r="L83" s="36" t="s">
         <v>144</v>
       </c>
@@ -47571,17 +47612,17 @@
       <c r="T83" s="38"/>
       <c r="U83" s="36"/>
       <c r="V83" s="38"/>
-      <c r="W83" s="116" t="s">
+      <c r="W83" s="67" t="s">
         <v>303</v>
       </c>
-      <c r="X83" s="149"/>
-      <c r="Y83" s="149"/>
-      <c r="Z83" s="117"/>
-      <c r="AA83" s="143" t="s">
+      <c r="X83" s="201"/>
+      <c r="Y83" s="201"/>
+      <c r="Z83" s="68"/>
+      <c r="AA83" s="159" t="s">
         <v>325</v>
       </c>
-      <c r="AB83" s="144"/>
-      <c r="AC83" s="145"/>
+      <c r="AB83" s="160"/>
+      <c r="AC83" s="161"/>
       <c r="AD83" s="36"/>
       <c r="AE83" s="37"/>
       <c r="AF83" s="37"/>
@@ -47600,18 +47641,18 @@
       <c r="C84" s="47">
         <v>6</v>
       </c>
-      <c r="D84" s="143" t="s">
+      <c r="D84" s="159" t="s">
         <v>300</v>
       </c>
-      <c r="E84" s="144"/>
-      <c r="F84" s="144"/>
-      <c r="G84" s="145"/>
-      <c r="H84" s="143" t="s">
+      <c r="E84" s="160"/>
+      <c r="F84" s="160"/>
+      <c r="G84" s="161"/>
+      <c r="H84" s="159" t="s">
         <v>315</v>
       </c>
-      <c r="I84" s="144"/>
-      <c r="J84" s="144"/>
-      <c r="K84" s="145"/>
+      <c r="I84" s="160"/>
+      <c r="J84" s="160"/>
+      <c r="K84" s="161"/>
       <c r="L84" s="36" t="s">
         <v>144</v>
       </c>
@@ -47627,17 +47668,17 @@
       <c r="T84" s="38"/>
       <c r="U84" s="36"/>
       <c r="V84" s="38"/>
-      <c r="W84" s="116" t="s">
+      <c r="W84" s="67" t="s">
         <v>303</v>
       </c>
-      <c r="X84" s="149"/>
-      <c r="Y84" s="149"/>
-      <c r="Z84" s="117"/>
-      <c r="AA84" s="143" t="s">
+      <c r="X84" s="201"/>
+      <c r="Y84" s="201"/>
+      <c r="Z84" s="68"/>
+      <c r="AA84" s="159" t="s">
         <v>326</v>
       </c>
-      <c r="AB84" s="144"/>
-      <c r="AC84" s="145"/>
+      <c r="AB84" s="160"/>
+      <c r="AC84" s="161"/>
       <c r="AD84" s="36"/>
       <c r="AE84" s="37"/>
       <c r="AF84" s="37"/>
@@ -47656,18 +47697,18 @@
       <c r="C85" s="47">
         <v>7</v>
       </c>
-      <c r="D85" s="143" t="s">
+      <c r="D85" s="159" t="s">
         <v>300</v>
       </c>
-      <c r="E85" s="144"/>
-      <c r="F85" s="144"/>
-      <c r="G85" s="145"/>
-      <c r="H85" s="146" t="s">
+      <c r="E85" s="160"/>
+      <c r="F85" s="160"/>
+      <c r="G85" s="161"/>
+      <c r="H85" s="202" t="s">
         <v>96</v>
       </c>
-      <c r="I85" s="147"/>
-      <c r="J85" s="147"/>
-      <c r="K85" s="148"/>
+      <c r="I85" s="203"/>
+      <c r="J85" s="203"/>
+      <c r="K85" s="204"/>
       <c r="L85" s="36" t="s">
         <v>312</v>
       </c>
@@ -47706,18 +47747,18 @@
       <c r="C86" s="47">
         <v>8</v>
       </c>
-      <c r="D86" s="143" t="s">
+      <c r="D86" s="159" t="s">
         <v>300</v>
       </c>
-      <c r="E86" s="144"/>
-      <c r="F86" s="144"/>
-      <c r="G86" s="145"/>
-      <c r="H86" s="146" t="s">
+      <c r="E86" s="160"/>
+      <c r="F86" s="160"/>
+      <c r="G86" s="161"/>
+      <c r="H86" s="202" t="s">
         <v>316</v>
       </c>
-      <c r="I86" s="147"/>
-      <c r="J86" s="147"/>
-      <c r="K86" s="148"/>
+      <c r="I86" s="203"/>
+      <c r="J86" s="203"/>
+      <c r="K86" s="204"/>
       <c r="L86" s="36" t="s">
         <v>151</v>
       </c>
@@ -47733,17 +47774,17 @@
       <c r="T86" s="38"/>
       <c r="U86" s="36"/>
       <c r="V86" s="38"/>
-      <c r="W86" s="143" t="s">
+      <c r="W86" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="X86" s="144"/>
-      <c r="Y86" s="144"/>
-      <c r="Z86" s="145"/>
-      <c r="AA86" s="143" t="s">
+      <c r="X86" s="160"/>
+      <c r="Y86" s="160"/>
+      <c r="Z86" s="161"/>
+      <c r="AA86" s="159" t="s">
         <v>323</v>
       </c>
-      <c r="AB86" s="144"/>
-      <c r="AC86" s="145"/>
+      <c r="AB86" s="160"/>
+      <c r="AC86" s="161"/>
       <c r="AD86" s="36"/>
       <c r="AE86" s="37"/>
       <c r="AF86" s="37"/>
@@ -47762,18 +47803,18 @@
       <c r="C87" s="47">
         <v>9</v>
       </c>
-      <c r="D87" s="143" t="s">
+      <c r="D87" s="159" t="s">
         <v>300</v>
       </c>
-      <c r="E87" s="144"/>
-      <c r="F87" s="144"/>
-      <c r="G87" s="145"/>
-      <c r="H87" s="146" t="s">
+      <c r="E87" s="160"/>
+      <c r="F87" s="160"/>
+      <c r="G87" s="161"/>
+      <c r="H87" s="202" t="s">
         <v>317</v>
       </c>
-      <c r="I87" s="147"/>
-      <c r="J87" s="147"/>
-      <c r="K87" s="148"/>
+      <c r="I87" s="203"/>
+      <c r="J87" s="203"/>
+      <c r="K87" s="204"/>
       <c r="L87" s="36" t="s">
         <v>151</v>
       </c>
@@ -47789,17 +47830,17 @@
       <c r="T87" s="38"/>
       <c r="U87" s="36"/>
       <c r="V87" s="38"/>
-      <c r="W87" s="143" t="s">
+      <c r="W87" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="X87" s="144"/>
-      <c r="Y87" s="144"/>
-      <c r="Z87" s="145"/>
-      <c r="AA87" s="143" t="s">
+      <c r="X87" s="160"/>
+      <c r="Y87" s="160"/>
+      <c r="Z87" s="161"/>
+      <c r="AA87" s="159" t="s">
         <v>327</v>
       </c>
-      <c r="AB87" s="144"/>
-      <c r="AC87" s="145"/>
+      <c r="AB87" s="160"/>
+      <c r="AC87" s="161"/>
       <c r="AD87" s="36"/>
       <c r="AE87" s="37"/>
       <c r="AF87" s="37"/>
@@ -47818,18 +47859,18 @@
       <c r="C88" s="47">
         <v>10</v>
       </c>
-      <c r="D88" s="143" t="s">
+      <c r="D88" s="159" t="s">
         <v>300</v>
       </c>
-      <c r="E88" s="144"/>
-      <c r="F88" s="144"/>
-      <c r="G88" s="145"/>
-      <c r="H88" s="146" t="s">
+      <c r="E88" s="160"/>
+      <c r="F88" s="160"/>
+      <c r="G88" s="161"/>
+      <c r="H88" s="202" t="s">
         <v>318</v>
       </c>
-      <c r="I88" s="147"/>
-      <c r="J88" s="147"/>
-      <c r="K88" s="148"/>
+      <c r="I88" s="203"/>
+      <c r="J88" s="203"/>
+      <c r="K88" s="204"/>
       <c r="L88" s="36" t="s">
         <v>319</v>
       </c>
@@ -47870,18 +47911,18 @@
       <c r="C89" s="47">
         <v>11</v>
       </c>
-      <c r="D89" s="143" t="s">
+      <c r="D89" s="159" t="s">
         <v>300</v>
       </c>
-      <c r="E89" s="144"/>
-      <c r="F89" s="144"/>
-      <c r="G89" s="145"/>
-      <c r="H89" s="146" t="s">
+      <c r="E89" s="160"/>
+      <c r="F89" s="160"/>
+      <c r="G89" s="161"/>
+      <c r="H89" s="202" t="s">
         <v>320</v>
       </c>
-      <c r="I89" s="147"/>
-      <c r="J89" s="147"/>
-      <c r="K89" s="148"/>
+      <c r="I89" s="203"/>
+      <c r="J89" s="203"/>
+      <c r="K89" s="204"/>
       <c r="L89" s="36" t="s">
         <v>151</v>
       </c>
@@ -47922,18 +47963,18 @@
       <c r="C90" s="47">
         <v>12</v>
       </c>
-      <c r="D90" s="143" t="s">
+      <c r="D90" s="159" t="s">
         <v>300</v>
       </c>
-      <c r="E90" s="144"/>
-      <c r="F90" s="144"/>
-      <c r="G90" s="145"/>
-      <c r="H90" s="146" t="s">
+      <c r="E90" s="160"/>
+      <c r="F90" s="160"/>
+      <c r="G90" s="161"/>
+      <c r="H90" s="202" t="s">
         <v>76</v>
       </c>
-      <c r="I90" s="147"/>
-      <c r="J90" s="147"/>
-      <c r="K90" s="148"/>
+      <c r="I90" s="203"/>
+      <c r="J90" s="203"/>
+      <c r="K90" s="204"/>
       <c r="L90" s="36" t="s">
         <v>151</v>
       </c>
@@ -47974,18 +48015,18 @@
       <c r="C91" s="47">
         <v>13</v>
       </c>
-      <c r="D91" s="143" t="s">
+      <c r="D91" s="159" t="s">
         <v>300</v>
       </c>
-      <c r="E91" s="144"/>
-      <c r="F91" s="144"/>
-      <c r="G91" s="145"/>
-      <c r="H91" s="146" t="s">
+      <c r="E91" s="160"/>
+      <c r="F91" s="160"/>
+      <c r="G91" s="161"/>
+      <c r="H91" s="202" t="s">
         <v>321</v>
       </c>
-      <c r="I91" s="147"/>
-      <c r="J91" s="147"/>
-      <c r="K91" s="148"/>
+      <c r="I91" s="203"/>
+      <c r="J91" s="203"/>
+      <c r="K91" s="204"/>
       <c r="L91" s="36" t="s">
         <v>328</v>
       </c>
@@ -48778,41 +48819,44 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="O11:S19"/>
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="D24:H27"/>
-    <mergeCell ref="I24:M27"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="AA84:AC84"/>
+    <mergeCell ref="W86:Z86"/>
+    <mergeCell ref="W87:Z87"/>
+    <mergeCell ref="AA86:AC86"/>
+    <mergeCell ref="AA87:AC87"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="W79:Z79"/>
+    <mergeCell ref="AA79:AC79"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="W82:Z82"/>
+    <mergeCell ref="W83:Z83"/>
+    <mergeCell ref="W84:Z84"/>
+    <mergeCell ref="AA82:AC82"/>
+    <mergeCell ref="AA83:AC83"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="D83:G83"/>
     <mergeCell ref="E61:I61"/>
     <mergeCell ref="E43:I43"/>
     <mergeCell ref="E50:I50"/>
@@ -48829,44 +48873,41 @@
     <mergeCell ref="E34:S34"/>
     <mergeCell ref="S22:S33"/>
     <mergeCell ref="N29:R33"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="D81:G81"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="W79:Z79"/>
-    <mergeCell ref="AA79:AC79"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="W82:Z82"/>
-    <mergeCell ref="W83:Z83"/>
-    <mergeCell ref="W84:Z84"/>
-    <mergeCell ref="AA82:AC82"/>
-    <mergeCell ref="AA83:AC83"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="H91:K91"/>
-    <mergeCell ref="AA84:AC84"/>
-    <mergeCell ref="W86:Z86"/>
-    <mergeCell ref="W87:Z87"/>
-    <mergeCell ref="AA86:AC86"/>
-    <mergeCell ref="AA87:AC87"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="D24:H27"/>
+    <mergeCell ref="I24:M27"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="O11:S19"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -48907,32 +48948,32 @@
       <c r="K1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107" t="s">
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107" t="s">
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107" t="s">
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98"/>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="98"/>
+      <c r="AE1" s="98"/>
       <c r="AF1" s="132" t="s">
         <v>4</v>
       </c>
@@ -48961,32 +49002,32 @@
       <c r="K2" s="214" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78" t="s">
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111" t="s">
         <v>258</v>
       </c>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78" t="s">
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="78"/>
+      <c r="X2" s="111"/>
       <c r="Y2" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="78"/>
+      <c r="Z2" s="111"/>
+      <c r="AA2" s="111"/>
+      <c r="AB2" s="111"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="111"/>
+      <c r="AE2" s="111"/>
       <c r="AF2" s="133" t="s">
         <v>3</v>
       </c>
@@ -49012,11 +49053,11 @@
       <c r="H3" s="211"/>
       <c r="I3" s="211"/>
       <c r="J3" s="212"/>
-      <c r="K3" s="70" t="s">
+      <c r="K3" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="70"/>
-      <c r="M3" s="71"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="104"/>
       <c r="N3" s="124"/>
       <c r="O3" s="125"/>
       <c r="P3" s="125"/>
